--- a/managementCommandsFiles/FormSectionsMar6.xlsx
+++ b/managementCommandsFiles/FormSectionsMar6.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="233">
   <si>
-    <t xml:space="preserve">Section ID</t>
+    <t xml:space="preserve">FormSection ID</t>
   </si>
   <si>
     <t xml:space="preserve">Form</t>
@@ -861,20 +861,8 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -885,11 +873,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -913,19 +913,19 @@
   <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H149" activeCellId="0" sqref="H149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.35546875" defaultRowHeight="19.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="47.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="16.36"/>
   </cols>
@@ -957,7 +957,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
@@ -979,7 +981,9 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="20.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1001,7 +1005,9 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1023,7 +1029,9 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1045,7 +1053,9 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1067,7 +1077,9 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1089,7 +1101,9 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1111,7 +1125,9 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1133,7 +1149,9 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
@@ -1155,7 +1173,9 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1177,7 +1197,9 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
@@ -1199,8 +1221,10 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1221,8 +1245,10 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1243,7 +1269,9 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
+      <c r="A15" s="4" t="n">
+        <v>14</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1265,8 +1293,10 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1287,7 +1317,9 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
+      <c r="A17" s="4" t="n">
+        <v>16</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
@@ -1309,7 +1341,9 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
+      <c r="A18" s="4" t="n">
+        <v>17</v>
+      </c>
       <c r="B18" s="5" t="s">
         <v>42</v>
       </c>
@@ -1331,7 +1365,9 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
+      <c r="A19" s="4" t="n">
+        <v>18</v>
+      </c>
       <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
@@ -1353,7 +1389,9 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="n">
+        <v>19</v>
+      </c>
       <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
@@ -1375,7 +1413,9 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
+      <c r="A21" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -1397,7 +1437,9 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
+      <c r="A22" s="4" t="n">
+        <v>21</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
@@ -1419,8 +1461,10 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1441,7 +1485,9 @@
       <c r="H23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
+      <c r="A24" s="4" t="n">
+        <v>23</v>
+      </c>
       <c r="B24" s="5" t="s">
         <v>54</v>
       </c>
@@ -1463,7 +1509,9 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
+      <c r="A25" s="4" t="n">
+        <v>24</v>
+      </c>
       <c r="B25" s="5" t="s">
         <v>56</v>
       </c>
@@ -1485,7 +1533,9 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
+      <c r="A26" s="4" t="n">
+        <v>25</v>
+      </c>
       <c r="B26" s="5" t="s">
         <v>58</v>
       </c>
@@ -1507,7 +1557,9 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
+      <c r="A27" s="4" t="n">
+        <v>26</v>
+      </c>
       <c r="B27" s="5" t="s">
         <v>60</v>
       </c>
@@ -1529,7 +1581,9 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
+      <c r="A28" s="4" t="n">
+        <v>27</v>
+      </c>
       <c r="B28" s="5" t="s">
         <v>62</v>
       </c>
@@ -1551,7 +1605,9 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="n">
+        <v>28</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>64</v>
       </c>
@@ -1573,7 +1629,9 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
+      <c r="A30" s="4" t="n">
+        <v>29</v>
+      </c>
       <c r="B30" s="5" t="s">
         <v>66</v>
       </c>
@@ -1595,8 +1653,10 @@
       <c r="H30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -1617,7 +1677,9 @@
       <c r="H31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
+      <c r="A32" s="4" t="n">
+        <v>31</v>
+      </c>
       <c r="B32" s="5" t="s">
         <v>70</v>
       </c>
@@ -1639,7 +1701,9 @@
       <c r="H32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9"/>
+      <c r="A33" s="4" t="n">
+        <v>32</v>
+      </c>
       <c r="B33" s="5" t="s">
         <v>72</v>
       </c>
@@ -1661,7 +1725,9 @@
       <c r="H33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
+      <c r="A34" s="4" t="n">
+        <v>33</v>
+      </c>
       <c r="B34" s="5" t="s">
         <v>74</v>
       </c>
@@ -1683,8 +1749,10 @@
       <c r="H34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -1705,8 +1773,10 @@
       <c r="H35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1727,7 +1797,9 @@
       <c r="H36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9"/>
+      <c r="A37" s="4" t="n">
+        <v>36</v>
+      </c>
       <c r="B37" s="5" t="s">
         <v>79</v>
       </c>
@@ -1749,7 +1821,9 @@
       <c r="H37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
+      <c r="A38" s="4" t="n">
+        <v>37</v>
+      </c>
       <c r="B38" s="5" t="s">
         <v>81</v>
       </c>
@@ -1771,7 +1845,9 @@
       <c r="H38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9"/>
+      <c r="A39" s="4" t="n">
+        <v>38</v>
+      </c>
       <c r="B39" s="5" t="s">
         <v>83</v>
       </c>
@@ -1793,7 +1869,9 @@
       <c r="H39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9"/>
+      <c r="A40" s="4" t="n">
+        <v>39</v>
+      </c>
       <c r="B40" s="5" t="s">
         <v>85</v>
       </c>
@@ -1815,7 +1893,9 @@
       <c r="H40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
+      <c r="A41" s="4" t="n">
+        <v>40</v>
+      </c>
       <c r="B41" s="5" t="s">
         <v>87</v>
       </c>
@@ -1837,7 +1917,9 @@
       <c r="H41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9"/>
+      <c r="A42" s="4" t="n">
+        <v>41</v>
+      </c>
       <c r="B42" s="5" t="s">
         <v>89</v>
       </c>
@@ -1859,7 +1941,9 @@
       <c r="H42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9"/>
+      <c r="A43" s="4" t="n">
+        <v>42</v>
+      </c>
       <c r="B43" s="5" t="s">
         <v>91</v>
       </c>
@@ -1881,7 +1965,9 @@
       <c r="H43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10"/>
+      <c r="A44" s="4" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" s="5" t="s">
         <v>93</v>
       </c>
@@ -1903,7 +1989,9 @@
       <c r="H44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9"/>
+      <c r="A45" s="4" t="n">
+        <v>44</v>
+      </c>
       <c r="B45" s="5" t="s">
         <v>95</v>
       </c>
@@ -1925,7 +2013,9 @@
       <c r="H45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9"/>
+      <c r="A46" s="4" t="n">
+        <v>45</v>
+      </c>
       <c r="B46" s="5" t="s">
         <v>97</v>
       </c>
@@ -1947,7 +2037,9 @@
       <c r="H46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10"/>
+      <c r="A47" s="4" t="n">
+        <v>46</v>
+      </c>
       <c r="B47" s="5" t="s">
         <v>99</v>
       </c>
@@ -1969,7 +2061,9 @@
       <c r="H47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9"/>
+      <c r="A48" s="4" t="n">
+        <v>47</v>
+      </c>
       <c r="B48" s="5" t="s">
         <v>101</v>
       </c>
@@ -1991,7 +2085,9 @@
       <c r="H48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10"/>
+      <c r="A49" s="4" t="n">
+        <v>48</v>
+      </c>
       <c r="B49" s="5" t="s">
         <v>103</v>
       </c>
@@ -2013,7 +2109,9 @@
       <c r="H49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10"/>
+      <c r="A50" s="4" t="n">
+        <v>49</v>
+      </c>
       <c r="B50" s="5" t="s">
         <v>105</v>
       </c>
@@ -2035,7 +2133,9 @@
       <c r="H50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10"/>
+      <c r="A51" s="4" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" s="5" t="s">
         <v>107</v>
       </c>
@@ -2057,7 +2157,9 @@
       <c r="H51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9"/>
+      <c r="A52" s="4" t="n">
+        <v>51</v>
+      </c>
       <c r="B52" s="5" t="s">
         <v>109</v>
       </c>
@@ -2079,7 +2181,9 @@
       <c r="H52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9"/>
+      <c r="A53" s="4" t="n">
+        <v>52</v>
+      </c>
       <c r="B53" s="5" t="s">
         <v>111</v>
       </c>
@@ -2101,7 +2205,9 @@
       <c r="H53" s="9"/>
     </row>
     <row r="54" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9"/>
+      <c r="A54" s="4" t="n">
+        <v>53</v>
+      </c>
       <c r="B54" s="5" t="s">
         <v>113</v>
       </c>
@@ -2123,7 +2229,9 @@
       <c r="H54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9"/>
+      <c r="A55" s="4" t="n">
+        <v>54</v>
+      </c>
       <c r="B55" s="5" t="s">
         <v>115</v>
       </c>
@@ -2145,7 +2253,9 @@
       <c r="H55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10"/>
+      <c r="A56" s="4" t="n">
+        <v>55</v>
+      </c>
       <c r="B56" s="5" t="s">
         <v>117</v>
       </c>
@@ -2167,7 +2277,9 @@
       <c r="H56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9"/>
+      <c r="A57" s="4" t="n">
+        <v>56</v>
+      </c>
       <c r="B57" s="5" t="s">
         <v>119</v>
       </c>
@@ -2189,8 +2301,10 @@
       <c r="H57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9"/>
-      <c r="B58" s="11" t="s">
+      <c r="A58" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -2211,7 +2325,9 @@
       <c r="H58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9"/>
+      <c r="A59" s="4" t="n">
+        <v>58</v>
+      </c>
       <c r="B59" s="5" t="s">
         <v>123</v>
       </c>
@@ -2233,7 +2349,9 @@
       <c r="H59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9"/>
+      <c r="A60" s="4" t="n">
+        <v>59</v>
+      </c>
       <c r="B60" s="5" t="s">
         <v>125</v>
       </c>
@@ -2255,7 +2373,9 @@
       <c r="H60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9"/>
+      <c r="A61" s="4" t="n">
+        <v>60</v>
+      </c>
       <c r="B61" s="5" t="s">
         <v>127</v>
       </c>
@@ -2277,7 +2397,9 @@
       <c r="H61" s="9"/>
     </row>
     <row r="62" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9"/>
+      <c r="A62" s="4" t="n">
+        <v>61</v>
+      </c>
       <c r="B62" s="5" t="s">
         <v>129</v>
       </c>
@@ -2299,7 +2421,9 @@
       <c r="H62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9"/>
+      <c r="A63" s="4" t="n">
+        <v>62</v>
+      </c>
       <c r="B63" s="5" t="s">
         <v>131</v>
       </c>
@@ -2321,7 +2445,9 @@
       <c r="H63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9"/>
+      <c r="A64" s="4" t="n">
+        <v>63</v>
+      </c>
       <c r="B64" s="5" t="s">
         <v>133</v>
       </c>
@@ -2343,7 +2469,9 @@
       <c r="H64" s="9"/>
     </row>
     <row r="65" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9"/>
+      <c r="A65" s="4" t="n">
+        <v>64</v>
+      </c>
       <c r="B65" s="5" t="s">
         <v>135</v>
       </c>
@@ -2365,7 +2493,9 @@
       <c r="H65" s="9"/>
     </row>
     <row r="66" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9"/>
+      <c r="A66" s="4" t="n">
+        <v>65</v>
+      </c>
       <c r="B66" s="5" t="s">
         <v>137</v>
       </c>
@@ -2387,7 +2517,9 @@
       <c r="H66" s="9"/>
     </row>
     <row r="67" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9"/>
+      <c r="A67" s="4" t="n">
+        <v>66</v>
+      </c>
       <c r="B67" s="5" t="s">
         <v>139</v>
       </c>
@@ -2409,7 +2541,9 @@
       <c r="H67" s="9"/>
     </row>
     <row r="68" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10"/>
+      <c r="A68" s="4" t="n">
+        <v>67</v>
+      </c>
       <c r="B68" s="5" t="s">
         <v>141</v>
       </c>
@@ -2431,7 +2565,9 @@
       <c r="H68" s="9"/>
     </row>
     <row r="69" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9"/>
+      <c r="A69" s="4" t="n">
+        <v>68</v>
+      </c>
       <c r="B69" s="5" t="s">
         <v>143</v>
       </c>
@@ -2453,7 +2589,9 @@
       <c r="H69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9"/>
+      <c r="A70" s="4" t="n">
+        <v>69</v>
+      </c>
       <c r="B70" s="5" t="s">
         <v>145</v>
       </c>
@@ -2475,7 +2613,9 @@
       <c r="H70" s="9"/>
     </row>
     <row r="71" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9"/>
+      <c r="A71" s="4" t="n">
+        <v>70</v>
+      </c>
       <c r="B71" s="5" t="s">
         <v>147</v>
       </c>
@@ -2497,7 +2637,9 @@
       <c r="H71" s="9"/>
     </row>
     <row r="72" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10"/>
+      <c r="A72" s="4" t="n">
+        <v>71</v>
+      </c>
       <c r="B72" s="5" t="s">
         <v>149</v>
       </c>
@@ -2519,7 +2661,9 @@
       <c r="H72" s="9"/>
     </row>
     <row r="73" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4"/>
+      <c r="A73" s="4" t="n">
+        <v>72</v>
+      </c>
       <c r="B73" s="5" t="s">
         <v>151</v>
       </c>
@@ -2541,7 +2685,9 @@
       <c r="H73" s="9"/>
     </row>
     <row r="74" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9"/>
+      <c r="A74" s="4" t="n">
+        <v>73</v>
+      </c>
       <c r="B74" s="5" t="s">
         <v>153</v>
       </c>
@@ -2563,7 +2709,9 @@
       <c r="H74" s="9"/>
     </row>
     <row r="75" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9"/>
+      <c r="A75" s="4" t="n">
+        <v>74</v>
+      </c>
       <c r="B75" s="5" t="s">
         <v>155</v>
       </c>
@@ -2585,7 +2733,9 @@
       <c r="H75" s="9"/>
     </row>
     <row r="76" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9"/>
+      <c r="A76" s="4" t="n">
+        <v>75</v>
+      </c>
       <c r="B76" s="5" t="s">
         <v>157</v>
       </c>
@@ -2607,7 +2757,9 @@
       <c r="H76" s="9"/>
     </row>
     <row r="77" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10"/>
+      <c r="A77" s="4" t="n">
+        <v>76</v>
+      </c>
       <c r="B77" s="5" t="s">
         <v>159</v>
       </c>
@@ -2629,7 +2781,9 @@
       <c r="H77" s="9"/>
     </row>
     <row r="78" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4"/>
+      <c r="A78" s="4" t="n">
+        <v>77</v>
+      </c>
       <c r="B78" s="5" t="s">
         <v>161</v>
       </c>
@@ -2651,7 +2805,9 @@
       <c r="H78" s="9"/>
     </row>
     <row r="79" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9"/>
+      <c r="A79" s="4" t="n">
+        <v>78</v>
+      </c>
       <c r="B79" s="5" t="s">
         <v>163</v>
       </c>
@@ -2673,7 +2829,9 @@
       <c r="H79" s="9"/>
     </row>
     <row r="80" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9"/>
+      <c r="A80" s="4" t="n">
+        <v>79</v>
+      </c>
       <c r="B80" s="5" t="s">
         <v>165</v>
       </c>
@@ -2695,7 +2853,9 @@
       <c r="H80" s="9"/>
     </row>
     <row r="81" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4"/>
+      <c r="A81" s="4" t="n">
+        <v>80</v>
+      </c>
       <c r="B81" s="5" t="s">
         <v>167</v>
       </c>
@@ -2717,7 +2877,9 @@
       <c r="H81" s="9"/>
     </row>
     <row r="82" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9"/>
+      <c r="A82" s="4" t="n">
+        <v>81</v>
+      </c>
       <c r="B82" s="5" t="s">
         <v>169</v>
       </c>
@@ -2739,7 +2901,9 @@
       <c r="H82" s="9"/>
     </row>
     <row r="83" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12"/>
+      <c r="A83" s="4" t="n">
+        <v>82</v>
+      </c>
       <c r="B83" s="5" t="s">
         <v>171</v>
       </c>
@@ -2761,7 +2925,9 @@
       <c r="H83" s="9"/>
     </row>
     <row r="84" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9"/>
+      <c r="A84" s="4" t="n">
+        <v>83</v>
+      </c>
       <c r="B84" s="5" t="s">
         <v>173</v>
       </c>
@@ -2783,7 +2949,9 @@
       <c r="H84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9"/>
+      <c r="A85" s="4" t="n">
+        <v>84</v>
+      </c>
       <c r="B85" s="5" t="s">
         <v>175</v>
       </c>
@@ -2805,7 +2973,9 @@
       <c r="H85" s="9"/>
     </row>
     <row r="86" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4"/>
+      <c r="A86" s="4" t="n">
+        <v>85</v>
+      </c>
       <c r="B86" s="5" t="s">
         <v>177</v>
       </c>
@@ -2827,7 +2997,9 @@
       <c r="H86" s="9"/>
     </row>
     <row r="87" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="9"/>
+      <c r="A87" s="4" t="n">
+        <v>86</v>
+      </c>
       <c r="B87" s="5" t="s">
         <v>179</v>
       </c>
@@ -2849,7 +3021,9 @@
       <c r="H87" s="9"/>
     </row>
     <row r="88" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12"/>
+      <c r="A88" s="4" t="n">
+        <v>87</v>
+      </c>
       <c r="B88" s="5" t="s">
         <v>181</v>
       </c>
@@ -2871,7 +3045,9 @@
       <c r="H88" s="9"/>
     </row>
     <row r="89" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="9"/>
+      <c r="A89" s="4" t="n">
+        <v>88</v>
+      </c>
       <c r="B89" s="5" t="s">
         <v>183</v>
       </c>
@@ -2893,7 +3069,9 @@
       <c r="H89" s="9"/>
     </row>
     <row r="90" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9"/>
+      <c r="A90" s="4" t="n">
+        <v>89</v>
+      </c>
       <c r="B90" s="5" t="s">
         <v>183</v>
       </c>
@@ -2915,7 +3093,9 @@
       <c r="H90" s="9"/>
     </row>
     <row r="91" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9"/>
+      <c r="A91" s="4" t="n">
+        <v>90</v>
+      </c>
       <c r="B91" s="5" t="s">
         <v>183</v>
       </c>
@@ -2937,7 +3117,9 @@
       <c r="H91" s="9"/>
     </row>
     <row r="92" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9"/>
+      <c r="A92" s="4" t="n">
+        <v>91</v>
+      </c>
       <c r="B92" s="5" t="s">
         <v>187</v>
       </c>
@@ -2959,7 +3141,9 @@
       <c r="H92" s="9"/>
     </row>
     <row r="93" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="9"/>
+      <c r="A93" s="4" t="n">
+        <v>92</v>
+      </c>
       <c r="B93" s="5" t="s">
         <v>189</v>
       </c>
@@ -2981,7 +3165,9 @@
       <c r="H93" s="9"/>
     </row>
     <row r="94" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9"/>
+      <c r="A94" s="4" t="n">
+        <v>93</v>
+      </c>
       <c r="B94" s="5" t="s">
         <v>191</v>
       </c>
@@ -3003,7 +3189,9 @@
       <c r="H94" s="9"/>
     </row>
     <row r="95" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="13"/>
+      <c r="A95" s="4" t="n">
+        <v>94</v>
+      </c>
       <c r="B95" s="5" t="s">
         <v>193</v>
       </c>
@@ -3025,7 +3213,9 @@
       <c r="H95" s="9"/>
     </row>
     <row r="96" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9"/>
+      <c r="A96" s="4" t="n">
+        <v>95</v>
+      </c>
       <c r="B96" s="5" t="s">
         <v>195</v>
       </c>
@@ -3047,7 +3237,9 @@
       <c r="H96" s="9"/>
     </row>
     <row r="97" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="13"/>
+      <c r="A97" s="4" t="n">
+        <v>96</v>
+      </c>
       <c r="B97" s="5" t="s">
         <v>197</v>
       </c>
@@ -3069,8 +3261,10 @@
       <c r="H97" s="9"/>
     </row>
     <row r="98" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4"/>
-      <c r="B98" s="11" t="s">
+      <c r="A98" s="4" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>199</v>
       </c>
       <c r="C98" s="6" t="s">
@@ -3091,7 +3285,9 @@
       <c r="H98" s="9"/>
     </row>
     <row r="99" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10"/>
+      <c r="A99" s="4" t="n">
+        <v>98</v>
+      </c>
       <c r="B99" s="5" t="s">
         <v>201</v>
       </c>
@@ -3113,7 +3309,9 @@
       <c r="H99" s="9"/>
     </row>
     <row r="100" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="9"/>
+      <c r="A100" s="4" t="n">
+        <v>99</v>
+      </c>
       <c r="B100" s="5" t="s">
         <v>203</v>
       </c>
@@ -3135,7 +3333,9 @@
       <c r="H100" s="9"/>
     </row>
     <row r="101" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="10"/>
+      <c r="A101" s="4" t="n">
+        <v>100</v>
+      </c>
       <c r="B101" s="5" t="s">
         <v>205</v>
       </c>
@@ -3157,8 +3357,10 @@
       <c r="H101" s="9"/>
     </row>
     <row r="102" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="10"/>
-      <c r="B102" s="11" t="s">
+      <c r="A102" s="4" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>207</v>
       </c>
       <c r="C102" s="6" t="s">
@@ -3179,7 +3381,9 @@
       <c r="H102" s="9"/>
     </row>
     <row r="103" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7"/>
+      <c r="A103" s="4" t="n">
+        <v>102</v>
+      </c>
       <c r="B103" s="5" t="s">
         <v>209</v>
       </c>
@@ -3201,7 +3405,9 @@
       <c r="H103" s="9"/>
     </row>
     <row r="104" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9"/>
+      <c r="A104" s="4" t="n">
+        <v>103</v>
+      </c>
       <c r="B104" s="5" t="s">
         <v>211</v>
       </c>
@@ -3223,7 +3429,9 @@
       <c r="H104" s="9"/>
     </row>
     <row r="105" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="9"/>
+      <c r="A105" s="4" t="n">
+        <v>104</v>
+      </c>
       <c r="B105" s="5" t="s">
         <v>213</v>
       </c>
@@ -3245,8 +3453,10 @@
       <c r="H105" s="9"/>
     </row>
     <row r="106" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="9"/>
-      <c r="B106" s="11" t="s">
+      <c r="A106" s="4" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>215</v>
       </c>
       <c r="C106" s="6" t="s">
@@ -3267,7 +3477,9 @@
       <c r="H106" s="9"/>
     </row>
     <row r="107" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9"/>
+      <c r="A107" s="4" t="n">
+        <v>106</v>
+      </c>
       <c r="B107" s="5" t="s">
         <v>217</v>
       </c>
@@ -3289,8 +3501,10 @@
       <c r="H107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9"/>
-      <c r="B108" s="11" t="s">
+      <c r="A108" s="4" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>219</v>
       </c>
       <c r="C108" s="6" t="s">
@@ -3311,7 +3525,9 @@
       <c r="H108" s="9"/>
     </row>
     <row r="109" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="9"/>
+      <c r="A109" s="4" t="n">
+        <v>108</v>
+      </c>
       <c r="B109" s="5" t="s">
         <v>221</v>
       </c>
@@ -3333,7 +3549,9 @@
       <c r="H109" s="9"/>
     </row>
     <row r="110" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4"/>
+      <c r="A110" s="4" t="n">
+        <v>109</v>
+      </c>
       <c r="B110" s="5" t="s">
         <v>223</v>
       </c>
@@ -3355,7 +3573,9 @@
       <c r="H110" s="9"/>
     </row>
     <row r="111" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="9"/>
+      <c r="A111" s="4" t="n">
+        <v>110</v>
+      </c>
       <c r="B111" s="5" t="s">
         <v>225</v>
       </c>
@@ -3377,7 +3597,9 @@
       <c r="H111" s="9"/>
     </row>
     <row r="112" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="10"/>
+      <c r="A112" s="4" t="n">
+        <v>111</v>
+      </c>
       <c r="B112" s="5" t="s">
         <v>227</v>
       </c>
@@ -3399,7 +3621,9 @@
       <c r="H112" s="9"/>
     </row>
     <row r="113" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="9"/>
+      <c r="A113" s="4" t="n">
+        <v>112</v>
+      </c>
       <c r="B113" s="5" t="s">
         <v>229</v>
       </c>
@@ -3421,8 +3645,10 @@
       <c r="H113" s="9"/>
     </row>
     <row r="114" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9"/>
-      <c r="B114" s="11" t="s">
+      <c r="A114" s="4" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>231</v>
       </c>
       <c r="C114" s="6" t="s">
@@ -3443,8 +3669,10 @@
       <c r="H114" s="9"/>
     </row>
     <row r="115" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="10"/>
-      <c r="B115" s="14"/>
+      <c r="A115" s="4" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="11"/>
       <c r="C115" s="6"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -3453,18 +3681,22 @@
       <c r="H115" s="9"/>
     </row>
     <row r="116" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="9"/>
-      <c r="B116" s="15"/>
+      <c r="A116" s="4" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="12"/>
       <c r="C116" s="6"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
       <c r="H116" s="9"/>
     </row>
     <row r="117" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="9"/>
-      <c r="B117" s="14"/>
+      <c r="A117" s="4" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="11"/>
       <c r="C117" s="6"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -3473,8 +3705,10 @@
       <c r="H117" s="9"/>
     </row>
     <row r="118" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9"/>
-      <c r="B118" s="14"/>
+      <c r="A118" s="4" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="11"/>
       <c r="C118" s="6"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -3483,8 +3717,10 @@
       <c r="H118" s="9"/>
     </row>
     <row r="119" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="9"/>
-      <c r="B119" s="14"/>
+      <c r="A119" s="4" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="11"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -3493,8 +3729,10 @@
       <c r="H119" s="9"/>
     </row>
     <row r="120" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9"/>
-      <c r="B120" s="14"/>
+      <c r="A120" s="4" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="11"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -3503,8 +3741,10 @@
       <c r="H120" s="9"/>
     </row>
     <row r="121" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9"/>
-      <c r="B121" s="15"/>
+      <c r="A121" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="12"/>
       <c r="C121" s="4"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
@@ -3513,8 +3753,10 @@
       <c r="H121" s="9"/>
     </row>
     <row r="122" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10"/>
-      <c r="B122" s="15"/>
+      <c r="A122" s="4" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="12"/>
       <c r="C122" s="4"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
@@ -3523,28 +3765,34 @@
       <c r="H122" s="9"/>
     </row>
     <row r="123" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="9"/>
-      <c r="B123" s="16"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
+      <c r="A123" s="4" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
       <c r="H123" s="9"/>
     </row>
     <row r="124" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9"/>
-      <c r="B124" s="14"/>
+      <c r="A124" s="4" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="11"/>
       <c r="C124" s="9"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
       <c r="H124" s="9"/>
     </row>
     <row r="125" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="9"/>
-      <c r="B125" s="14"/>
+      <c r="A125" s="4" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="11"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -3553,8 +3801,10 @@
       <c r="H125" s="9"/>
     </row>
     <row r="126" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="9"/>
-      <c r="B126" s="14"/>
+      <c r="A126" s="4" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="11"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
@@ -3563,8 +3813,10 @@
       <c r="H126" s="9"/>
     </row>
     <row r="127" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="9"/>
-      <c r="B127" s="14"/>
+      <c r="A127" s="4" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="11"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
@@ -3573,8 +3825,10 @@
       <c r="H127" s="9"/>
     </row>
     <row r="128" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="9"/>
-      <c r="B128" s="15"/>
+      <c r="A128" s="4" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="12"/>
       <c r="C128" s="4"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
@@ -3583,8 +3837,10 @@
       <c r="H128" s="9"/>
     </row>
     <row r="129" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="9"/>
-      <c r="B129" s="14"/>
+      <c r="A129" s="4" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="11"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
@@ -3593,18 +3849,22 @@
       <c r="H129" s="9"/>
     </row>
     <row r="130" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="12"/>
-      <c r="B130" s="14"/>
+      <c r="A130" s="4" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="11"/>
       <c r="C130" s="9"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
       <c r="H130" s="9"/>
     </row>
     <row r="131" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="9"/>
-      <c r="B131" s="14"/>
+      <c r="A131" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="11"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -3613,9 +3873,11 @@
       <c r="H131" s="9"/>
     </row>
     <row r="132" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="10"/>
-      <c r="B132" s="16"/>
-      <c r="C132" s="12"/>
+      <c r="A132" s="4" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="15"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
@@ -3623,8 +3885,10 @@
       <c r="H132" s="9"/>
     </row>
     <row r="133" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="10"/>
-      <c r="B133" s="14"/>
+      <c r="A133" s="4" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="11"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -3633,8 +3897,10 @@
       <c r="H133" s="9"/>
     </row>
     <row r="134" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="10"/>
-      <c r="B134" s="14"/>
+      <c r="A134" s="4" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" s="11"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
@@ -3643,8 +3909,10 @@
       <c r="H134" s="9"/>
     </row>
     <row r="135" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4"/>
-      <c r="B135" s="14"/>
+      <c r="A135" s="4" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" s="11"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -3653,8 +3921,10 @@
       <c r="H135" s="9"/>
     </row>
     <row r="136" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="9"/>
-      <c r="B136" s="14"/>
+      <c r="A136" s="4" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" s="11"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -3663,9 +3933,11 @@
       <c r="H136" s="9"/>
     </row>
     <row r="137" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="9"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="13"/>
+      <c r="A137" s="4" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" s="16"/>
+      <c r="C137" s="17"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
@@ -3673,9 +3945,11 @@
       <c r="H137" s="9"/>
     </row>
     <row r="138" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="10"/>
-      <c r="B138" s="16"/>
-      <c r="C138" s="12"/>
+      <c r="A138" s="4" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="15"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
@@ -3683,8 +3957,10 @@
       <c r="H138" s="9"/>
     </row>
     <row r="139" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="12"/>
-      <c r="B139" s="14"/>
+      <c r="A139" s="4" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="11"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -3693,8 +3969,10 @@
       <c r="H139" s="9"/>
     </row>
     <row r="140" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="9"/>
-      <c r="B140" s="14"/>
+      <c r="A140" s="4" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" s="11"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
@@ -3703,8 +3981,10 @@
       <c r="H140" s="9"/>
     </row>
     <row r="141" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="9"/>
-      <c r="B141" s="14"/>
+      <c r="A141" s="4" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" s="11"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -3713,8 +3993,10 @@
       <c r="H141" s="9"/>
     </row>
     <row r="142" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="9"/>
-      <c r="B142" s="14"/>
+      <c r="A142" s="4" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" s="11"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -3723,8 +4005,10 @@
       <c r="H142" s="9"/>
     </row>
     <row r="143" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="9"/>
-      <c r="B143" s="15"/>
+      <c r="A143" s="4" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" s="12"/>
       <c r="C143" s="4"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
@@ -3733,8 +4017,10 @@
       <c r="H143" s="9"/>
     </row>
     <row r="144" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="4"/>
-      <c r="B144" s="15"/>
+      <c r="A144" s="4" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" s="12"/>
       <c r="C144" s="4"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
@@ -3743,8 +4029,10 @@
       <c r="H144" s="9"/>
     </row>
     <row r="145" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="4"/>
-      <c r="B145" s="14"/>
+      <c r="A145" s="4" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" s="11"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -3753,8 +4041,10 @@
       <c r="H145" s="9"/>
     </row>
     <row r="146" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="9"/>
-      <c r="B146" s="14"/>
+      <c r="A146" s="4" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" s="11"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -3763,7 +4053,9 @@
       <c r="H146" s="9"/>
     </row>
     <row r="147" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="9"/>
+      <c r="A147" s="4" t="n">
+        <v>146</v>
+      </c>
       <c r="B147" s="6" t="s">
         <v>1</v>
       </c>
